--- a/medicine/Enfance/Arthur_Rackham/Arthur_Rackham.xlsx
+++ b/medicine/Enfance/Arthur_Rackham/Arthur_Rackham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Rackham (19 septembre 1867 - 6 septembre 1939), est un artiste-peintre britannique, illustrateur entre autres de nombreux ouvrages.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rackham est né à Londres dans une famille qui compte douze enfants. À 18 ans, il travaille comme employé au « Westminster Fire Office » et commence à étudier à l’école d’art de Lambeth. Dès 1888, âgé de vingt ans, il est invité à exposer à la Royal Academy comme aquarelliste.
 En 1892, il quitte son poste d'employé et commence à travailler comme journaliste et illustrateur pour l’hebdomadaire Westminster Budget. Cependant, ses premières œuvres n’ont pas encore la dimension fantastique ou merveilleuse qu'elles auront par la suite : Rackham n’a pas encore trouvé son style, et n'a pas le succès qui lui permettra par la suite de choisir les œuvres littéraires qu'il veut mettre en images. Son premier recueil d’illustrations est publié en 1893. Dès lors et jusqu’à sa mort, il illustrera de nombreux ouvrages. La première manifestation de son goût pour une certaine préciosité, voire une forme d'excentricité propre à l'esprit fin de siècle qui agite les dernières années victoriennes, trouvera son expression dans l'édition illustrée de The Dolly Dialogues, d'Anthony Hope, en 1894. Deux ans plus tard, le curieux The Zankiwank &amp; the Bletherwitch de Shafto Justin Adair Fitz-Gerald publié par J. M. Dent l'impose comme un illustrateur novateur.
@@ -546,7 +560,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'œuvre de Rackham, très singulière en son temps, est d'une grande richesse. 
 La majeure partie de son travail concerne les livres pour enfants : Les Contes des frères Grimm (1900) ; Rip van Winkle (1905) ; Peter Pan (1906), ainsi que Alice au pays des merveilles (1907), notamment. Cependant, il a aussi travaillé sur nombre d’ouvrages pour adultes : Le Songe d'une nuit d'été (1908), Ondine (conte) (1911), The Rhinegold and the Valkyrie (L'or du Rhin et la Valkyrie) (1911), etc.
